--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T13:26:27+00:00</t>
+    <t>2025-10-02T13:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T13:32:16+00:00</t>
+    <t>2025-10-02T14:00:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T14:00:56+00:00</t>
+    <t>2025-10-02T14:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T14:19:26+00:00</t>
+    <t>2025-10-02T15:49:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-coordinate-reliability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T15:49:09+00:00</t>
+    <t>2025-10-14T13:00:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
